--- a/medicine/Mort/Cimetière_ancien_de_Châtenay-Malabry/Cimetière_ancien_de_Châtenay-Malabry.xlsx
+++ b/medicine/Mort/Cimetière_ancien_de_Châtenay-Malabry/Cimetière_ancien_de_Châtenay-Malabry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Ch%C3%A2tenay-Malabry</t>
+          <t>Cimetière_ancien_de_Châtenay-Malabry</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière ancien de Châtenay-Malabry est l'un des deux cimetières de la commune de Châtenay-Malabry, dans les Hauts-de-Seine, l'autre étant le cimetière nouveau. Il se trouve 107 avenue de la Division-Leclerc[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière ancien de Châtenay-Malabry est l'un des deux cimetières de la commune de Châtenay-Malabry, dans les Hauts-de-Seine, l'autre étant le cimetière nouveau. Il se trouve 107 avenue de la Division-Leclerc.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Ch%C3%A2tenay-Malabry</t>
+          <t>Cimetière_ancien_de_Châtenay-Malabry</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce petit cimetière en partie sauvegardé a ouvert ses portes en 1811. L'écrivain Paul Léautaud et le philosophe Emmanuel Mounier y sont enterrés. Le monument aux morts de la guerre de 1914-1918[2], le tombeau de la famille Chauriat[4], et trois chapelles funéraires (la chapelle funéraire d’Henri de Latouche[5], la chapelle funéraire de la famille Croux-Bocquet[6] et la chapelle funéraire de la famille Bisson-Baudin[1]) sont inscrits à l’Inventaire général du patrimoine culturel. On remarque dans un angle du cimetière la fosse de vingt soldats allemands tués pendant la Guerre de 1870.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce petit cimetière en partie sauvegardé a ouvert ses portes en 1811. L'écrivain Paul Léautaud et le philosophe Emmanuel Mounier y sont enterrés. Le monument aux morts de la guerre de 1914-1918, le tombeau de la famille Chauriat, et trois chapelles funéraires (la chapelle funéraire d’Henri de Latouche, la chapelle funéraire de la famille Croux-Bocquet et la chapelle funéraire de la famille Bisson-Baudin) sont inscrits à l’Inventaire général du patrimoine culturel. On remarque dans un angle du cimetière la fosse de vingt soldats allemands tués pendant la Guerre de 1870.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Ch%C3%A2tenay-Malabry</t>
+          <t>Cimetière_ancien_de_Châtenay-Malabry</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jules Barbier (1825-1901), librettiste,
 Lucien Bazor (1889-1974), médailleur, grand prix de Rome en 1923, auteur de nombreuses pièces de monnaie,
@@ -553,7 +569,7 @@
 Maggy Monier (1887-1965), peintre et illustratrice,
 Emmanuel Mounier (1905-1950), philosophe,
 André Piettre (1906-1994), économiste,
-Paul Theunissen (1873-1931), sculpteur[7].</t>
+Paul Theunissen (1873-1931), sculpteur.</t>
         </is>
       </c>
     </row>
